--- a/xlsx/_baidu_iPhone 5_intext.xlsx
+++ b/xlsx/_baidu_iPhone 5_intext.xlsx
@@ -20,7 +20,7 @@
     <t>iPhone 5</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/10306226.htm</t>
+    <t>https://baike.baidu.com/view/6240117.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E8%8B%B9%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
@@ -2029,7 +2029,7 @@
         <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2972,7 +2972,7 @@
         <v>142</v>
       </c>
       <c r="G72" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:7">
